--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -35,7 +35,7 @@
     <sheet name="HNB HEAD OFFICE" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Sheet4" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="Mrs . Rohini" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="boc" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="cat" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -35,7 +35,6 @@
     <sheet name="HNB HEAD OFFICE" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Sheet4" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="Mrs . Rohini" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="cat" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7139,57 +7138,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -35,6 +35,7 @@
     <sheet name="HNB HEAD OFFICE" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Sheet4" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="Mrs . Rohini" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="cat" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -7138,6 +7139,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -3008,13 +3008,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>123, 321</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -3025,17 +3021,13 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>asdf</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="test" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,85 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="test" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,85 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sf</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dtgdse</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="test" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,85 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>sf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>dtgdse</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="qwe" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="qwe" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -28,6 +28,7 @@
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="qwe" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="qwer" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3006,6 +3007,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,8 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="qwe" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="qwer" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2956,108 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="zxc" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="zxc" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="test" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,93 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="test" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,93 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>asdf</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="rty" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="rty" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="asd" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="asd" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="alm" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="alm" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="cat" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -2961,7 +2961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3000,6 +3000,34 @@
           <t>Indoor Serial(s)</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ewrwe</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>werwer</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -28,6 +28,7 @@
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="cat" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="new" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3010,15 +3011,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>werwer</t>
@@ -3027,7 +3021,57 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -3033,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3070,6 +3070,42 @@
       <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>wefsdf</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wewdrewsfdesw</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>sdfcsdsdfssdf, sfwerwr</t>
         </is>
       </c>
     </row>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,8 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="cat" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="new" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="new" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3005,96 +3004,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ewrwe</t>
+          <t>wefsdf</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>234234</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>werwer</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>wefsdf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>234234</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>wewdrewsfdesw</t>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="new" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,87 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>wefsdf</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>234234</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>wewdrewsfdesw</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>sdfcsdsdfssdf, sfwerwr</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="new" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="new" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="cat" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="fgh" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,57 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="fgh" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,57 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,6 +27,7 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="c2ray" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2954,6 +2955,93 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Model</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Outdoor Serial(s)</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Model</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Quantity</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Indoor Serial(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1, 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/vrf_models.xlsx
+++ b/vrf_models.xlsx
@@ -27,7 +27,6 @@
     <sheet name="Glomark Kandana" sheetId="19" state="visible" r:id="rId19"/>
     <sheet name="HNB HEAD OFFICE" sheetId="20" state="visible" r:id="rId20"/>
     <sheet name="Mrs . Rohini" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="c2ray" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2955,93 +2954,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Model</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Quantity</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Outdoor Serial(s)</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Model</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Quantity</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>Indoor Serial(s)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1, 2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>dsa</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
